--- a/data/trans_orig/LAWTONB_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8507104-828F-4B6C-91FD-E5A0CD482B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7274D8F9-1357-4261-882F-939D02C68859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A26508F5-9187-4E73-B8F9-B6FE41D516A5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F38E8389-F8FE-414E-B7CF-4229816BF48F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="472">
   <si>
     <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -574,874 +574,886 @@
     <t>69,13%</t>
   </si>
   <si>
-    <t>73,6%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>8,93%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC83E5AE-9B57-4D8B-936B-057F0AD34B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B6397D-F5F3-4770-9B9E-E6A2A43AECC1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3216,7 +3228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE33342-57F0-4CD7-A5BF-11E6F92D0B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABDCACE-84F2-4B72-8C73-DDCF99F23897}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,10 +3355,10 @@
         <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>358</v>
@@ -3355,13 +3367,13 @@
         <v>376613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>623</v>
@@ -3370,13 +3382,13 @@
         <v>663096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3403,13 @@
         <v>30424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3406,13 +3418,13 @@
         <v>79551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -3421,13 +3433,13 @@
         <v>109974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>33488</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -3457,13 +3469,13 @@
         <v>53029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>80</v>
@@ -3472,13 +3484,13 @@
         <v>86516</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,10 +3508,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3508,13 +3520,13 @@
         <v>62082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -3523,13 +3535,13 @@
         <v>95284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>30800</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3559,13 +3571,13 @@
         <v>63271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -3574,13 +3586,13 @@
         <v>94071</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3660,13 @@
         <v>98650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -3663,13 +3675,13 @@
         <v>61921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -3678,13 +3690,13 @@
         <v>160571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3711,13 @@
         <v>3133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3714,13 +3726,13 @@
         <v>11505</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -3729,13 +3741,13 @@
         <v>14638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3762,13 @@
         <v>7421</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3765,13 +3777,13 @@
         <v>4015</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3780,13 +3792,13 @@
         <v>11436</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3813,13 @@
         <v>6328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3816,13 +3828,13 @@
         <v>2109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3831,13 +3843,13 @@
         <v>8436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3864,13 @@
         <v>3134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3867,13 +3879,13 @@
         <v>3524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3882,13 +3894,13 @@
         <v>6657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3968,13 @@
         <v>24547</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3971,13 +3983,13 @@
         <v>17823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3986,13 +3998,13 @@
         <v>42369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4025,7 @@
         <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4022,13 +4034,13 @@
         <v>1109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4037,13 +4049,13 @@
         <v>1109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4070,13 @@
         <v>1043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4079,7 +4091,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -4088,13 +4100,13 @@
         <v>1043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,7 +4127,7 @@
         <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4124,13 +4136,13 @@
         <v>2215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4139,13 +4151,13 @@
         <v>3201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4178,7 @@
         <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4175,13 +4187,13 @@
         <v>1100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4190,13 +4202,13 @@
         <v>1100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4276,13 @@
         <v>409680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -4279,13 +4291,13 @@
         <v>456356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>802</v>
@@ -4294,13 +4306,13 @@
         <v>866037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4327,13 @@
         <v>33556</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
@@ -4330,13 +4342,13 @@
         <v>92165</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>116</v>
@@ -4345,13 +4357,13 @@
         <v>125721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,10 +4381,10 @@
         <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -4384,10 +4396,10 @@
         <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -4399,10 +4411,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +4429,10 @@
         <v>40516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>313</v>
@@ -4453,7 +4465,7 @@
         <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4480,13 @@
         <v>33933</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4483,13 +4495,13 @@
         <v>67894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -4498,13 +4510,13 @@
         <v>101827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADB6DC-2921-4F0D-A67D-F2A83E7CE01B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE33F6-6D94-473D-9679-FE942D0263CD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4596,7 +4608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4700,16 +4712,16 @@
         <v>278</v>
       </c>
       <c r="D4" s="7">
-        <v>257553</v>
+        <v>257552</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>297</v>
@@ -4718,13 +4730,13 @@
         <v>340123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>575</v>
@@ -4733,13 +4745,13 @@
         <v>597676</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4766,13 @@
         <v>25665</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -4769,13 +4781,13 @@
         <v>62951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>82</v>
@@ -4784,13 +4796,13 @@
         <v>88616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,16 +4814,16 @@
         <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>29665</v>
+        <v>29664</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -4823,10 +4835,10 @@
         <v>77</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M6" s="7">
         <v>87</v>
@@ -4835,13 +4847,13 @@
         <v>95230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4868,13 @@
         <v>24989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4871,13 +4883,13 @@
         <v>49888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -4886,13 +4898,13 @@
         <v>74877</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,10 +4922,10 @@
         <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4943,7 +4955,7 @@
         <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4967,7 @@
         <v>386</v>
       </c>
       <c r="D9" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>58</v>
@@ -5011,13 +5023,13 @@
         <v>169656</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -5026,13 +5038,13 @@
         <v>133340</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -5041,13 +5053,13 @@
         <v>302995</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5074,13 @@
         <v>8542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -5077,13 +5089,13 @@
         <v>26693</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5092,13 +5104,13 @@
         <v>35234</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5125,13 @@
         <v>8235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5128,13 +5140,13 @@
         <v>10479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -5146,10 +5158,10 @@
         <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5176,13 @@
         <v>5263</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5179,13 +5191,13 @@
         <v>14239</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5194,13 +5206,13 @@
         <v>19502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5227,13 @@
         <v>836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5230,13 +5242,13 @@
         <v>3324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5245,13 +5257,13 @@
         <v>4160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5331,13 @@
         <v>36911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5334,13 +5346,13 @@
         <v>25537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5349,13 +5361,13 @@
         <v>62447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5388,7 @@
         <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5385,13 +5397,13 @@
         <v>4515</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5400,13 +5412,13 @@
         <v>5565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5433,13 @@
         <v>2308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5436,7 +5448,7 @@
         <v>2247</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>82</v>
@@ -5493,7 +5505,7 @@
         <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5711,10 +5723,10 @@
         <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,7 +5744,7 @@
         <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>186</v>
+        <v>449</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>450</v>
@@ -5744,13 +5756,13 @@
         <v>78291</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>451</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5762,10 +5774,10 @@
         <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5792,13 @@
         <v>32012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>454</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>455</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5795,13 +5807,13 @@
         <v>64126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -5810,13 +5822,13 @@
         <v>96138</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5843,13 @@
         <v>16866</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -5846,13 +5858,13 @@
         <v>40929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -5861,13 +5873,13 @@
         <v>57796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/LAWTONB_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7274D8F9-1357-4261-882F-939D02C68859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD901DB4-4460-467C-AF62-7F1177E6A1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F38E8389-F8FE-414E-B7CF-4229816BF48F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66C45563-1D54-4A7C-9CDA-2C5748D5AC7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="469">
   <si>
     <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>71,27%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>Dependencia ligera 6-7</t>
@@ -106,28 +106,28 @@
     <t>14,7%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>Dependencia moderada 4-5</t>
@@ -136,1324 +136,1315 @@
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>Dependencia grave 2-3</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>Dependencia total 0-1</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>Dependencia grave 2-3</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>Dependencia total 0-1</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>3,14%</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B6397D-F5F3-4770-9B9E-E6A2A43AECC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A339E6-7202-4303-8A15-B2BA0591F1E3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2175,16 +2166,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -2193,13 +2184,13 @@
         <v>15495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -2208,13 +2199,13 @@
         <v>32990</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>47</v>
@@ -2223,13 +2214,13 @@
         <v>48485</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2235,13 @@
         <v>373189</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>574</v>
@@ -2259,13 +2250,13 @@
         <v>587750</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>973</v>
@@ -2274,18 +2265,18 @@
         <v>960938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2297,13 +2288,13 @@
         <v>73895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -2312,13 +2303,13 @@
         <v>48713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -2327,13 +2318,13 @@
         <v>122608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2339,13 @@
         <v>4503</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2363,13 +2354,13 @@
         <v>5695</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2378,13 +2369,13 @@
         <v>10198</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2390,13 @@
         <v>6019</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2414,13 +2405,13 @@
         <v>2392</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2429,13 +2420,13 @@
         <v>8410</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,13 +2441,13 @@
         <v>1912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2465,13 +2456,13 @@
         <v>2233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2480,19 +2471,19 @@
         <v>4145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -2501,13 +2492,13 @@
         <v>1755</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2516,13 +2507,13 @@
         <v>3179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2531,13 +2522,13 @@
         <v>4934</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2543,13 @@
         <v>88083</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>60</v>
@@ -2567,13 +2558,13 @@
         <v>62212</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>149</v>
@@ -2582,18 +2573,18 @@
         <v>150295</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2605,13 +2596,13 @@
         <v>30404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2620,13 +2611,13 @@
         <v>15308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -2635,13 +2626,13 @@
         <v>45713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2647,13 @@
         <v>8176</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2671,13 +2662,13 @@
         <v>8274</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2686,13 +2677,13 @@
         <v>16450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2698,13 @@
         <v>2614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2722,13 +2713,13 @@
         <v>3298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -2737,13 +2728,13 @@
         <v>5912</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2773,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2788,19 +2779,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2809,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2824,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2839,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2851,13 @@
         <v>41194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2875,13 +2866,13 @@
         <v>26881</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -2890,13 +2881,13 @@
         <v>68075</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2904,13 @@
         <v>370257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>444</v>
@@ -2928,13 +2919,13 @@
         <v>444098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>828</v>
@@ -2943,13 +2934,13 @@
         <v>814355</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2955,13 @@
         <v>67555</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>101</v>
@@ -2979,13 +2970,13 @@
         <v>106900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>171</v>
@@ -2994,13 +2985,13 @@
         <v>174455</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,10 +3006,10 @@
         <v>27123</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>152</v>
@@ -3087,7 +3078,7 @@
         <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3096,19 +3087,19 @@
         <v>45806</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -3135,10 +3126,10 @@
         <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -3147,13 +3138,13 @@
         <v>53418</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3159,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3183,13 +3174,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3198,18 +3189,18 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABDCACE-84F2-4B72-8C73-DDCF99F23897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3559D882-716C-4B33-8281-E1D5654DA7CF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3245,7 +3236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3352,13 +3343,13 @@
         <v>286484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>358</v>
@@ -3367,13 +3358,13 @@
         <v>376613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>623</v>
@@ -3382,13 +3373,13 @@
         <v>663096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3394,13 @@
         <v>30424</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3418,13 +3409,13 @@
         <v>79551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -3433,13 +3424,13 @@
         <v>109974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3445,13 @@
         <v>33488</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -3469,13 +3460,13 @@
         <v>53029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>80</v>
@@ -3484,13 +3475,13 @@
         <v>86516</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3532,13 @@
         <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -3556,13 +3547,13 @@
         <v>30800</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3571,13 +3562,13 @@
         <v>63271</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -3607,13 +3598,13 @@
         <v>414398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>596</v>
@@ -3622,13 +3613,13 @@
         <v>634545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>974</v>
@@ -3637,18 +3628,18 @@
         <v>1048942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3741,7 +3732,7 @@
         <v>14638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>235</v>
@@ -3765,10 +3756,10 @@
         <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3777,13 +3768,13 @@
         <v>4015</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3792,13 +3783,13 @@
         <v>11436</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3804,13 @@
         <v>6328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3828,13 +3819,13 @@
         <v>2109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3843,19 +3834,19 @@
         <v>8436</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -3867,10 +3858,10 @@
         <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3879,13 +3870,13 @@
         <v>3524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3894,13 +3885,13 @@
         <v>6657</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3906,13 @@
         <v>118665</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>77</v>
@@ -3930,13 +3921,13 @@
         <v>83074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>182</v>
@@ -3945,18 +3936,18 @@
         <v>201739</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3959,13 @@
         <v>24547</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3983,13 +3974,13 @@
         <v>17823</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3998,13 +3989,13 @@
         <v>42369</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4010,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4034,13 +4025,13 @@
         <v>1109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4049,13 +4040,13 @@
         <v>1109</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4061,13 @@
         <v>1043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4085,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -4100,13 +4091,13 @@
         <v>1043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4112,13 @@
         <v>986</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4136,13 +4127,13 @@
         <v>2215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4151,19 +4142,19 @@
         <v>3201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4172,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4187,13 +4178,13 @@
         <v>1100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4202,13 +4193,13 @@
         <v>1100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4214,13 @@
         <v>26575</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -4238,13 +4229,13 @@
         <v>22246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -4253,13 +4244,13 @@
         <v>48821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4267,13 @@
         <v>409680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -4291,13 +4282,13 @@
         <v>456356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>802</v>
@@ -4306,13 +4297,13 @@
         <v>866037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4318,13 @@
         <v>33556</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
@@ -4342,13 +4333,13 @@
         <v>92165</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>116</v>
@@ -4357,13 +4348,13 @@
         <v>125721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>307</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4369,13 @@
         <v>41952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -4393,13 +4384,13 @@
         <v>57044</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -4408,13 +4399,13 @@
         <v>98996</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4420,13 @@
         <v>40516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -4444,13 +4435,13 @@
         <v>66406</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -4459,19 +4450,19 @@
         <v>106921</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>29</v>
@@ -4480,13 +4471,13 @@
         <v>33933</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4495,13 +4486,13 @@
         <v>67894</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>91</v>
@@ -4510,13 +4501,13 @@
         <v>101827</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4522,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>691</v>
@@ -4546,13 +4537,13 @@
         <v>739865</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1195</v>
@@ -4561,18 +4552,18 @@
         <v>1299502</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE33F6-6D94-473D-9679-FE942D0263CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2097AE-6B30-4806-AD53-105CA6CCE397}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4608,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4712,16 +4703,16 @@
         <v>278</v>
       </c>
       <c r="D4" s="7">
-        <v>257552</v>
+        <v>257553</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>297</v>
@@ -4730,13 +4721,13 @@
         <v>340123</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>575</v>
@@ -4745,13 +4736,13 @@
         <v>597676</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4757,13 @@
         <v>25665</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -4781,13 +4772,13 @@
         <v>62951</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>82</v>
@@ -4796,13 +4787,13 @@
         <v>88616</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4805,13 @@
         <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>29664</v>
+        <v>29665</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>347</v>
@@ -4832,13 +4823,13 @@
         <v>65565</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>87</v>
@@ -4847,10 +4838,10 @@
         <v>95230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>351</v>
@@ -4874,7 +4865,7 @@
         <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4883,13 +4874,13 @@
         <v>49888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -4898,19 +4889,19 @@
         <v>74877</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4919,13 +4910,13 @@
         <v>16030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4934,13 +4925,13 @@
         <v>36230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4949,13 +4940,13 @@
         <v>52260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,16 +4958,16 @@
         <v>386</v>
       </c>
       <c r="D9" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>471</v>
@@ -4985,13 +4976,13 @@
         <v>554757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>857</v>
@@ -5000,18 +4991,18 @@
         <v>908658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5023,13 +5014,13 @@
         <v>169656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -5038,10 +5029,10 @@
         <v>133340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>370</v>
@@ -5056,10 +5047,10 @@
         <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5065,13 @@
         <v>8542</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -5089,13 +5080,13 @@
         <v>26693</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5104,13 +5095,13 @@
         <v>35234</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,7 +5116,7 @@
         <v>8235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>381</v>
@@ -5143,10 +5134,10 @@
         <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -5158,10 +5149,10 @@
         <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5167,13 @@
         <v>5263</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5191,13 +5182,13 @@
         <v>14239</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5206,19 +5197,19 @@
         <v>19502</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5230,7 +5221,7 @@
         <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>396</v>
@@ -5245,7 +5236,7 @@
         <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>398</v>
@@ -5278,13 +5269,13 @@
         <v>192532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>157</v>
@@ -5293,13 +5284,13 @@
         <v>188074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>354</v>
@@ -5308,18 +5299,18 @@
         <v>380606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5382,13 +5373,13 @@
         <v>1050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5397,13 +5388,13 @@
         <v>4515</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5412,13 +5403,13 @@
         <v>5565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5424,13 @@
         <v>2308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5448,13 +5439,13 @@
         <v>2247</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5463,13 +5454,13 @@
         <v>4555</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5475,13 @@
         <v>1760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5499,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>352</v>
@@ -5514,19 +5505,19 @@
         <v>1760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5535,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5550,13 +5541,13 @@
         <v>1376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5565,13 +5556,13 @@
         <v>1376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5577,13 @@
         <v>42029</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5601,13 +5592,13 @@
         <v>33674</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -5616,13 +5607,13 @@
         <v>75703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5630,13 @@
         <v>464120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -5654,13 +5645,13 @@
         <v>499000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>916</v>
@@ -5669,13 +5660,13 @@
         <v>963120</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5681,13 @@
         <v>35257</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>78</v>
@@ -5705,13 +5696,13 @@
         <v>94158</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>118</v>
@@ -5723,10 +5714,10 @@
         <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>448</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5732,13 @@
         <v>40208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -5756,13 +5747,13 @@
         <v>78291</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5771,13 +5762,13 @@
         <v>118499</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5783,13 @@
         <v>32012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>456</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>458</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5807,13 +5798,13 @@
         <v>64126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>458</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -5822,19 +5813,19 @@
         <v>96138</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>462</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -5849,7 +5840,7 @@
         <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>465</v>
+        <v>47</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -5858,13 +5849,13 @@
         <v>40929</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -5873,13 +5864,13 @@
         <v>57796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5885,13 @@
         <v>588463</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>654</v>
@@ -5909,13 +5900,13 @@
         <v>776505</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1278</v>
@@ -5924,18 +5915,18 @@
         <v>1364968</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD901DB4-4460-467C-AF62-7F1177E6A1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88978B85-1157-420D-8BD4-3A9D52201AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66C45563-1D54-4A7C-9CDA-2C5748D5AC7F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BAB6FEB9-4D7C-43E6-B0AD-44902A31B358}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="469">
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="468">
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,1375 +76,1372 @@
     <t>71,27%</t>
   </si>
   <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>Dependencia ligera 6-7</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>Dependencia moderada 4-5</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>Dependencia grave 2-3</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>Dependencia total 0-1</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>Dependencia ligera 6-7</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2015 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>Dependencia moderada 4-5</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>Dependencia grave 2-3</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>Dependencia total 0-1</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>ESCALA-DE-LAWTON-Y-BRODY ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A339E6-7202-4303-8A15-B2BA0591F1E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE8DC65-4317-4944-82F1-E804C4790FEE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2166,16 +2163,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>17</v>
@@ -2184,13 +2181,13 @@
         <v>15495</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -2199,13 +2196,13 @@
         <v>32990</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>47</v>
@@ -2214,13 +2211,13 @@
         <v>48485</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2232,13 @@
         <v>373189</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>574</v>
@@ -2250,13 +2247,13 @@
         <v>587750</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>973</v>
@@ -2265,18 +2262,18 @@
         <v>960938</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2288,13 +2285,13 @@
         <v>73895</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -2303,13 +2300,13 @@
         <v>48713</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -2318,13 +2315,13 @@
         <v>122608</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2336,13 @@
         <v>4503</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2354,13 +2351,13 @@
         <v>5695</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2369,13 +2366,13 @@
         <v>10198</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2387,13 @@
         <v>6019</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2405,13 +2402,13 @@
         <v>2392</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2420,13 +2417,13 @@
         <v>8410</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2438,13 @@
         <v>1912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2456,13 +2453,13 @@
         <v>2233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2471,19 +2468,19 @@
         <v>4145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -2492,13 +2489,13 @@
         <v>1755</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2507,13 +2504,13 @@
         <v>3179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2522,13 +2519,13 @@
         <v>4934</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2540,13 @@
         <v>88083</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>60</v>
@@ -2558,13 +2555,13 @@
         <v>62212</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>149</v>
@@ -2573,18 +2570,18 @@
         <v>150295</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2596,13 +2593,13 @@
         <v>30404</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2611,13 +2608,13 @@
         <v>15308</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -2626,13 +2623,13 @@
         <v>45713</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2644,13 @@
         <v>8176</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2662,13 +2659,13 @@
         <v>8274</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -2677,13 +2674,13 @@
         <v>16450</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2695,13 @@
         <v>2614</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2713,13 +2710,13 @@
         <v>3298</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -2728,13 +2725,13 @@
         <v>5912</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2764,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2779,19 +2776,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2800,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2815,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2830,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2848,13 @@
         <v>41194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2866,13 +2863,13 @@
         <v>26881</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -2881,13 +2878,13 @@
         <v>68075</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2901,13 @@
         <v>370257</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>444</v>
@@ -2919,13 +2916,13 @@
         <v>444098</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>828</v>
@@ -2934,13 +2931,13 @@
         <v>814355</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2952,13 @@
         <v>67555</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>101</v>
@@ -2970,13 +2967,13 @@
         <v>106900</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>171</v>
@@ -2985,13 +2982,13 @@
         <v>174455</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,10 +3003,10 @@
         <v>27123</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>152</v>
@@ -3078,7 +3075,7 @@
         <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3087,19 +3084,19 @@
         <v>45806</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -3126,10 +3123,10 @@
         <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>52</v>
@@ -3138,13 +3135,13 @@
         <v>53418</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3156,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3174,13 +3171,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3189,18 +3186,18 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3559D882-716C-4B33-8281-E1D5654DA7CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072B4CFC-CFEE-4D20-98DD-31FEEF9D7005}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3236,7 +3233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3343,13 +3340,13 @@
         <v>286484</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>358</v>
@@ -3358,13 +3355,13 @@
         <v>376613</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>623</v>
@@ -3373,13 +3370,13 @@
         <v>663096</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3391,13 @@
         <v>30424</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -3409,13 +3406,13 @@
         <v>79551</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>103</v>
@@ -3424,13 +3421,13 @@
         <v>109974</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3442,13 @@
         <v>33488</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>49</v>
@@ -3460,13 +3457,13 @@
         <v>53029</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>80</v>
@@ -3475,13 +3472,13 @@
         <v>86516</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,10 +3496,10 @@
         <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -3511,13 +3508,13 @@
         <v>62082</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -3526,19 +3523,19 @@
         <v>95284</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -3553,7 +3550,7 @@
         <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3562,13 +3559,13 @@
         <v>63271</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>84</v>
@@ -3577,13 +3574,13 @@
         <v>94071</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3595,13 @@
         <v>414398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>596</v>
@@ -3613,13 +3610,13 @@
         <v>634545</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>974</v>
@@ -3628,18 +3625,18 @@
         <v>1048942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3651,13 +3648,13 @@
         <v>98650</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -3666,13 +3663,13 @@
         <v>61921</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -3681,13 +3678,13 @@
         <v>160571</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3699,13 @@
         <v>3133</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3717,13 +3714,13 @@
         <v>11505</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -3732,13 +3729,13 @@
         <v>14638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3750,13 @@
         <v>7421</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -3768,13 +3765,13 @@
         <v>4015</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3783,13 +3780,13 @@
         <v>11436</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3819,7 @@
         <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>247</v>
@@ -3846,7 +3843,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -3855,7 +3852,7 @@
         <v>3134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>251</v>
@@ -3906,13 +3903,13 @@
         <v>118665</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>77</v>
@@ -3921,13 +3918,13 @@
         <v>83074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>182</v>
@@ -3936,18 +3933,18 @@
         <v>201739</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4010,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>268</v>
@@ -4028,7 +4025,7 @@
         <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>270</v>
@@ -4043,7 +4040,7 @@
         <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>272</v>
@@ -4061,13 +4058,13 @@
         <v>1043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4076,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -4091,13 +4088,13 @@
         <v>1043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4109,13 @@
         <v>986</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4127,10 +4124,10 @@
         <v>2215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>279</v>
@@ -4154,7 +4151,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4163,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>268</v>
@@ -4181,7 +4178,7 @@
         <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>284</v>
@@ -4196,7 +4193,7 @@
         <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>286</v>
@@ -4214,13 +4211,13 @@
         <v>26575</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -4229,13 +4226,13 @@
         <v>22246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -4244,13 +4241,13 @@
         <v>48821</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4294,13 @@
         <v>866037</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4315,13 @@
         <v>33556</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>85</v>
@@ -4333,13 +4330,13 @@
         <v>92165</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M23" s="7">
         <v>116</v>
@@ -4348,13 +4345,13 @@
         <v>125721</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4366,13 @@
         <v>41952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -4384,13 +4381,13 @@
         <v>57044</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -4399,13 +4396,13 @@
         <v>98996</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>35</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4417,13 @@
         <v>40516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -4435,13 +4432,13 @@
         <v>66406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -4450,19 +4447,19 @@
         <v>106921</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>29</v>
@@ -4471,13 +4468,13 @@
         <v>33933</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4501,13 +4498,13 @@
         <v>101827</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4519,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>691</v>
@@ -4537,13 +4534,13 @@
         <v>739865</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1195</v>
@@ -4552,18 +4549,18 @@
         <v>1299502</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +4579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2097AE-6B30-4806-AD53-105CA6CCE397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C84D30-581B-425D-B503-42095C7A6E5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4706,13 +4703,13 @@
         <v>257553</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>297</v>
@@ -4721,13 +4718,13 @@
         <v>340123</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>575</v>
@@ -4736,13 +4733,13 @@
         <v>597676</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4754,13 @@
         <v>25665</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -4772,13 +4769,13 @@
         <v>62951</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>82</v>
@@ -4787,13 +4784,13 @@
         <v>88616</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4805,13 @@
         <v>29665</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>54</v>
@@ -4823,13 +4820,13 @@
         <v>65565</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M6" s="7">
         <v>87</v>
@@ -4838,13 +4835,13 @@
         <v>95230</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4856,13 @@
         <v>24989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4874,13 +4871,13 @@
         <v>49888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -4889,19 +4886,19 @@
         <v>74877</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4910,13 +4907,13 @@
         <v>16030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4925,13 +4922,13 @@
         <v>36230</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -4940,10 +4937,10 @@
         <v>52260</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>365</v>
@@ -4961,13 +4958,13 @@
         <v>353902</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>471</v>
@@ -4976,13 +4973,13 @@
         <v>554757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>857</v>
@@ -4991,18 +4988,18 @@
         <v>908658</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5032,10 +5029,10 @@
         <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -5044,13 +5041,13 @@
         <v>302995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5062,13 @@
         <v>8542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -5080,13 +5077,13 @@
         <v>26693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -5095,13 +5092,13 @@
         <v>35234</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5113,13 @@
         <v>8235</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -5131,13 +5128,13 @@
         <v>10479</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -5149,10 +5146,10 @@
         <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5164,13 @@
         <v>5263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5182,13 +5179,13 @@
         <v>14239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5197,19 +5194,19 @@
         <v>19502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5218,13 +5215,13 @@
         <v>836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5233,13 +5230,13 @@
         <v>3324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5248,13 +5245,13 @@
         <v>4160</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5266,13 @@
         <v>192532</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>157</v>
@@ -5284,13 +5281,13 @@
         <v>188074</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>354</v>
@@ -5299,18 +5296,18 @@
         <v>380606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5322,13 +5319,13 @@
         <v>36911</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5337,13 +5334,13 @@
         <v>25537</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5352,13 +5349,13 @@
         <v>62447</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5370,13 @@
         <v>1050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -5388,13 +5385,13 @@
         <v>4515</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5403,13 +5400,13 @@
         <v>5565</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5421,13 @@
         <v>2308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5439,13 +5436,13 @@
         <v>2247</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -5454,13 +5451,13 @@
         <v>4555</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5472,13 @@
         <v>1760</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5490,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5505,19 +5502,19 @@
         <v>1760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5526,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5541,13 +5538,13 @@
         <v>1376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5556,13 +5553,13 @@
         <v>1376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5574,13 @@
         <v>42029</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -5592,13 +5589,13 @@
         <v>33674</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -5607,13 +5604,13 @@
         <v>75703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5627,13 @@
         <v>464120</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -5645,13 +5642,13 @@
         <v>499000</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>916</v>
@@ -5660,13 +5657,13 @@
         <v>963120</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5678,13 @@
         <v>35257</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>78</v>
@@ -5696,13 +5693,13 @@
         <v>94158</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M23" s="7">
         <v>118</v>
@@ -5714,10 +5711,10 @@
         <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5729,13 @@
         <v>40208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -5747,13 +5744,13 @@
         <v>78291</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>452</v>
+        <v>189</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
@@ -5762,13 +5759,13 @@
         <v>118499</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5780,13 @@
         <v>32012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -5798,13 +5795,13 @@
         <v>64126</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -5813,19 +5810,19 @@
         <v>96138</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>19</v>
@@ -5834,13 +5831,13 @@
         <v>16866</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -5849,13 +5846,13 @@
         <v>40929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -5864,13 +5861,13 @@
         <v>57796</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5882,13 @@
         <v>588463</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>654</v>
@@ -5900,13 +5897,13 @@
         <v>776505</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1278</v>
@@ -5915,18 +5912,18 @@
         <v>1364968</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
